--- a/soft_cime/static/doc/R. AFFECTEES.xlsx
+++ b/soft_cime/static/doc/R. AFFECTEES.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="R. AFFECTEES" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -472,6 +469,60 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,6 +532,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,87 +566,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,310 +577,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="pointage"/>
-      <sheetName val="SUIVI JOURNALIER AVRIL"/>
-      <sheetName val="vs mars"/>
-      <sheetName val="CONTROLES"/>
-      <sheetName val="AVRIL"/>
-      <sheetName val="R. AFFECTEES"/>
-      <sheetName val="point sur les patentes"/>
-      <sheetName val="labo"/>
-      <sheetName val="tendances"/>
-      <sheetName val="Plan d actions "/>
-      <sheetName val="Etats des virements"/>
-      <sheetName val="Etats des virements2"/>
-      <sheetName val="Evaluation"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="reliquataires"/>
-      <sheetName val="suivi des TAV"/>
-      <sheetName val="Etat comparatif 1"/>
-      <sheetName val="Etat comparatif 2"/>
-      <sheetName val="Feuil2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="344">
-          <cell r="E344">
-            <v>491200</v>
-          </cell>
-          <cell r="F344">
-            <v>51300</v>
-          </cell>
-          <cell r="G344">
-            <v>71500</v>
-          </cell>
-          <cell r="L344">
-            <v>1062932.6590909089</v>
-          </cell>
-          <cell r="M344">
-            <v>6590182.4863636354</v>
-          </cell>
-          <cell r="N344">
-            <v>2977476.7287272732</v>
-          </cell>
-          <cell r="R344">
-            <v>262060.8299999999</v>
-          </cell>
-          <cell r="S344">
-            <v>1624777.1460000004</v>
-          </cell>
-          <cell r="T344">
-            <v>733770.32400000014</v>
-          </cell>
-          <cell r="AB344">
-            <v>159755.5018181818</v>
-          </cell>
-          <cell r="AC344">
-            <v>990484.11127272714</v>
-          </cell>
-          <cell r="AD344">
-            <v>447315.4050909091</v>
-          </cell>
-          <cell r="AJ344">
-            <v>307149.25</v>
-          </cell>
-          <cell r="AL344">
-            <v>23630.25</v>
-          </cell>
-          <cell r="AM344">
-            <v>118131.25</v>
-          </cell>
-          <cell r="AO344">
-            <v>0</v>
-          </cell>
-          <cell r="AP344">
-            <v>0</v>
-          </cell>
-          <cell r="AQ344">
-            <v>0</v>
-          </cell>
-          <cell r="AR344">
-            <v>0</v>
-          </cell>
-          <cell r="BB344">
-            <v>0</v>
-          </cell>
-          <cell r="BD344">
-            <v>0</v>
-          </cell>
-          <cell r="BE344">
-            <v>2615265</v>
-          </cell>
-          <cell r="BF344">
-            <v>1221482</v>
-          </cell>
-          <cell r="BG344">
-            <v>1489410</v>
-          </cell>
-          <cell r="BS344">
-            <v>28560</v>
-          </cell>
-          <cell r="BT344">
-            <v>51408</v>
-          </cell>
-          <cell r="BU344">
-            <v>51408</v>
-          </cell>
-          <cell r="BV344">
-            <v>154224</v>
-          </cell>
-          <cell r="BW344">
-            <v>8534.5</v>
-          </cell>
-          <cell r="BX344">
-            <v>15362.1</v>
-          </cell>
-          <cell r="BY344">
-            <v>15362.1</v>
-          </cell>
-          <cell r="BZ344">
-            <v>46086.3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="279">
-          <cell r="D279">
-            <v>0</v>
-          </cell>
-          <cell r="E279">
-            <v>0</v>
-          </cell>
-          <cell r="F279">
-            <v>0</v>
-          </cell>
-          <cell r="K279">
-            <v>308398.92909090908</v>
-          </cell>
-          <cell r="L279">
-            <v>1912073.3603636362</v>
-          </cell>
-          <cell r="N279">
-            <v>863517.00145454542</v>
-          </cell>
-          <cell r="Q279">
-            <v>114789.81272727271</v>
-          </cell>
-          <cell r="R279">
-            <v>711696.83890909085</v>
-          </cell>
-          <cell r="T279">
-            <v>321411.47563636367</v>
-          </cell>
-          <cell r="AA279">
-            <v>27407.360000000001</v>
-          </cell>
-          <cell r="AB279">
-            <v>169922.97399999999</v>
-          </cell>
-          <cell r="AD279">
-            <v>76738.956000000006</v>
-          </cell>
-          <cell r="AI279">
-            <v>0</v>
-          </cell>
-          <cell r="AK279">
-            <v>0</v>
-          </cell>
-          <cell r="AL279">
-            <v>0</v>
-          </cell>
-          <cell r="AN279">
-            <v>0</v>
-          </cell>
-          <cell r="AO279">
-            <v>0</v>
-          </cell>
-          <cell r="AP279">
-            <v>0</v>
-          </cell>
-          <cell r="AQ279">
-            <v>0</v>
-          </cell>
-          <cell r="AY279">
-            <v>0</v>
-          </cell>
-          <cell r="AZ279">
-            <v>0</v>
-          </cell>
-          <cell r="BA279">
-            <v>62400</v>
-          </cell>
-          <cell r="BB279">
-            <v>15200</v>
-          </cell>
-          <cell r="BC279">
-            <v>14900</v>
-          </cell>
-          <cell r="BD279">
-            <v>105529.2</v>
-          </cell>
-          <cell r="BE279">
-            <v>84394.8</v>
-          </cell>
-          <cell r="BF279">
-            <v>21110.6</v>
-          </cell>
-          <cell r="BG279">
-            <v>3165.3999999999996</v>
-          </cell>
-          <cell r="BH279">
-            <v>0</v>
-          </cell>
-          <cell r="BI279">
-            <v>28300</v>
-          </cell>
-          <cell r="BJ279">
-            <v>0</v>
-          </cell>
-          <cell r="BK279">
-            <v>0</v>
-          </cell>
-          <cell r="BL279">
-            <v>0</v>
-          </cell>
-          <cell r="BO279">
-            <v>0</v>
-          </cell>
-          <cell r="BP279">
-            <v>0</v>
-          </cell>
-          <cell r="BQ279">
-            <v>0</v>
-          </cell>
-          <cell r="BR279">
-            <v>0</v>
-          </cell>
-          <cell r="BS279">
-            <v>0</v>
-          </cell>
-          <cell r="BT279">
-            <v>0</v>
-          </cell>
-          <cell r="BU279">
-            <v>0</v>
-          </cell>
-          <cell r="BV279">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="143">
-          <cell r="E143">
-            <v>1272892.7670000002</v>
-          </cell>
-          <cell r="F143">
-            <v>1017969.7230000002</v>
-          </cell>
-          <cell r="G143">
-            <v>254635.96849999996</v>
-          </cell>
-          <cell r="H143">
-            <v>38181.041499999992</v>
-          </cell>
-          <cell r="I143">
-            <v>0</v>
-          </cell>
-          <cell r="J143">
-            <v>322325.5</v>
-          </cell>
-          <cell r="K143">
-            <v>509782</v>
-          </cell>
-          <cell r="L143">
-            <v>145652</v>
-          </cell>
-          <cell r="M143">
-            <v>72826</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,7 +868,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="9"/>
@@ -1190,100 +883,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="45"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="3.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="3.75" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="3.75" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -1306,26 +999,28 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A14" s="22">
+      <c r="A14" s="15">
         <v>1</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
       <c r="E14" s="4">
         <f>D14</f>
         <v>0</v>
@@ -1333,12 +1028,14 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
       <c r="E15" s="4">
         <f t="shared" ref="E15:E78" si="0">D15</f>
         <v>0</v>
@@ -1346,11 +1043,11 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="4">
         <f>D14+D15</f>
         <v>0</v>
@@ -1362,10 +1059,10 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="22">
+      <c r="A17" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1381,8 +1078,8 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1396,11 +1093,11 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="6">
         <f>D18+D17</f>
         <v>0</v>
@@ -1412,17 +1109,16 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A20" s="22">
+      <c r="A20" s="15">
         <v>3</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4">
-        <f>[1]CONTROLES!AO279+'[1]SUIVI JOURNALIER AVRIL'!AP344</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
@@ -1432,13 +1128,12 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="4">
-        <f>[1]CONTROLES!AP279+'[1]SUIVI JOURNALIER AVRIL'!AQ344</f>
         <v>0</v>
       </c>
       <c r="E21" s="4">
@@ -1448,13 +1143,12 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="22"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="4">
-        <f>[1]CONTROLES!AQ279+'[1]SUIVI JOURNALIER AVRIL'!AR344</f>
         <v>0</v>
       </c>
       <c r="E22" s="4">
@@ -1464,13 +1158,12 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="4">
-        <f>[1]CONTROLES!AN279+'[1]SUIVI JOURNALIER AVRIL'!AO344</f>
         <v>0</v>
       </c>
       <c r="E23" s="4">
@@ -1480,11 +1173,11 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="6">
         <f>D23+D22+D21+D20</f>
         <v>0</v>
@@ -1497,301 +1190,286 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A25" s="22">
+      <c r="A25" s="15">
         <v>4</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="4">
-        <f>[1]CONTROLES!K279+'[1]SUIVI JOURNALIER AVRIL'!L344</f>
-        <v>1371331.5881818179</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>1371331.5881818179</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="4">
-        <f>[1]CONTROLES!L279+'[1]SUIVI JOURNALIER AVRIL'!M344</f>
-        <v>8502255.8467272706</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>8502255.8467272706</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="4">
-        <f>[1]CONTROLES!N279+'[1]SUIVI JOURNALIER AVRIL'!N344</f>
-        <v>3840993.7301818188</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>3840993.7301818188</v>
+        <v>0</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="6">
         <f>D25+D26+D27</f>
-        <v>13714581.165090907</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6">
         <f>E25+E26+E27</f>
-        <v>13714581.165090907</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A29" s="22">
+      <c r="A29" s="15">
         <v>5</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="4">
-        <f>[1]CONTROLES!AA279+'[1]SUIVI JOURNALIER AVRIL'!AB344</f>
-        <v>187162.86181818182</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>187162.86181818182</v>
+        <v>0</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="4">
-        <f>[1]CONTROLES!AB279+'[1]SUIVI JOURNALIER AVRIL'!AC344</f>
-        <v>1160407.0852727271</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>1160407.0852727271</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="4">
-        <f>[1]CONTROLES!AD279+'[1]SUIVI JOURNALIER AVRIL'!AD344</f>
-        <v>524054.36109090911</v>
+        <v>0</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>524054.36109090911</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="6">
         <f>D29+D30+D31</f>
-        <v>1871624.3081818181</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
         <f>E29+E30+E31</f>
-        <v>1871624.3081818181</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="22">
+      <c r="A33" s="15">
         <v>6</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="4">
-        <f>[1]CONTROLES!Q279+'[1]SUIVI JOURNALIER AVRIL'!R344</f>
-        <v>376850.64272727259</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>376850.64272727259</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="4">
-        <f>[1]CONTROLES!R279+'[1]SUIVI JOURNALIER AVRIL'!S344</f>
-        <v>2336473.9849090911</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>2336473.9849090911</v>
+        <v>0</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="4">
-        <f>[1]CONTROLES!T279+'[1]SUIVI JOURNALIER AVRIL'!T344</f>
-        <v>1055181.7996363638</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>1055181.7996363638</v>
+        <v>0</v>
       </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="6">
         <f>D33+D34+D35</f>
-        <v>3768506.4272727277</v>
+        <v>0</v>
       </c>
       <c r="E36" s="6">
         <f>E33+E34+E35</f>
-        <v>3768506.4272727277</v>
+        <v>0</v>
       </c>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A37" s="22">
+      <c r="A37" s="15">
         <v>7</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="4">
-        <f>[1]CONTROLES!BI279+'[1]point sur les patentes'!J143</f>
-        <v>350625.5</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="0"/>
-        <v>350625.5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="4">
-        <f>[1]CONTROLES!BF279+'[1]point sur les patentes'!G143</f>
-        <v>275746.56849999994</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>275746.56849999994</v>
+        <v>0</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="4">
-        <f>[1]CONTROLES!BE279+'[1]point sur les patentes'!F143</f>
-        <v>1102364.5230000003</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>1102364.5230000003</v>
+        <v>0</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="4">
-        <f>[1]CONTROLES!BD279+'[1]point sur les patentes'!E143</f>
-        <v>1378421.9670000002</v>
+        <v>0</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>1378421.9670000002</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="4">
-        <f>[1]CONTROLES!BG279+'[1]point sur les patentes'!H143</f>
-        <v>41346.441499999994</v>
+        <v>0</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="0"/>
-        <v>41346.441499999994</v>
+        <v>0</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="4">
-        <f>[1]CONTROLES!BH279+'[1]point sur les patentes'!I143</f>
         <v>0</v>
       </c>
       <c r="E42" s="4">
@@ -1801,100 +1479,99 @@
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="6">
         <f>D37+D38+D39+D40+D41+D42</f>
-        <v>3148505.0000000005</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6">
         <f>E37+E38+E39+E40+E41+E42</f>
-        <v>3148505.0000000005</v>
+        <v>0</v>
       </c>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A44" s="22">
+      <c r="A44" s="15">
         <v>8</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="4">
-        <f>[1]CONTROLES!BL279+'[1]point sur les patentes'!M143</f>
-        <v>72826</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="0"/>
-        <v>72826</v>
+        <v>0</v>
       </c>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="4">
-        <f>[1]CONTROLES!BK279+'[1]point sur les patentes'!L143</f>
-        <v>145652</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="0"/>
-        <v>145652</v>
+        <v>0</v>
       </c>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="4">
-        <f>[1]CONTROLES!BJ279+'[1]point sur les patentes'!K143</f>
-        <v>509782</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="0"/>
-        <v>509782</v>
+        <v>0</v>
       </c>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="6">
         <f>D44+D45+D46</f>
-        <v>728260</v>
+        <v>0</v>
       </c>
       <c r="E47" s="6">
         <f>E44+E45+E46</f>
-        <v>728260</v>
+        <v>0</v>
       </c>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A48" s="22">
+      <c r="A48" s="15">
         <v>9</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
       <c r="E48" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1902,12 +1579,14 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
       <c r="E49" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1915,12 +1594,14 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
       <c r="E50" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1928,12 +1609,14 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
       <c r="E51" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1941,11 +1624,11 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="6">
         <f>D48+D49+D50+D51</f>
         <v>0</v>
@@ -1957,184 +1640,178 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A53" s="22">
+      <c r="A53" s="15">
         <v>10</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="4">
-        <f>[1]CONTROLES!BS279+'[1]SUIVI JOURNALIER AVRIL'!BW344</f>
-        <v>8534.5</v>
+        <v>0</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" si="0"/>
-        <v>8534.5</v>
+        <v>0</v>
       </c>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="4">
-        <f>[1]CONTROLES!BT279+'[1]SUIVI JOURNALIER AVRIL'!BX344</f>
-        <v>15362.1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" si="0"/>
-        <v>15362.1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="4">
-        <f>[1]CONTROLES!BU279+'[1]SUIVI JOURNALIER AVRIL'!BY344</f>
-        <v>15362.1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="0"/>
-        <v>15362.1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A56" s="22"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="4">
-        <f>[1]CONTROLES!BV279+'[1]SUIVI JOURNALIER AVRIL'!BZ344</f>
-        <v>46086.3</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="0"/>
-        <v>46086.3</v>
+        <v>0</v>
       </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="4">
         <f>D53+D54+D55+D56</f>
-        <v>85345</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4">
         <f>E53+E54+E55+E56</f>
-        <v>85345</v>
+        <v>0</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A58" s="22">
+      <c r="A58" s="15">
         <v>11</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="4">
-        <f>[1]CONTROLES!BO279+'[1]SUIVI JOURNALIER AVRIL'!BS344</f>
-        <v>28560</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>28560</v>
+        <v>0</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A59" s="22"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="4">
-        <f>[1]CONTROLES!BP279+'[1]SUIVI JOURNALIER AVRIL'!BT344</f>
-        <v>51408</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" si="0"/>
-        <v>51408</v>
+        <v>0</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A60" s="22"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="4">
-        <f>[1]CONTROLES!BQ279+'[1]SUIVI JOURNALIER AVRIL'!BU344</f>
-        <v>51408</v>
+        <v>0</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="0"/>
-        <v>51408</v>
+        <v>0</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A61" s="22"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="4">
-        <f>[1]CONTROLES!BR279+'[1]SUIVI JOURNALIER AVRIL'!BV344</f>
-        <v>154224</v>
+        <v>0</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" si="0"/>
-        <v>154224</v>
+        <v>0</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="6">
         <f>D58+D59+D60+D61</f>
-        <v>285600</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
         <f>E58+E59+E60+E61</f>
-        <v>285600</v>
+        <v>0</v>
       </c>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A63" s="22">
+      <c r="A63" s="15">
         <v>12</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
       <c r="E63" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2142,12 +1819,14 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A64" s="22"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
       <c r="E64" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2155,12 +1834,14 @@
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
       <c r="E65" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2168,12 +1849,14 @@
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
       <c r="E66" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2181,11 +1864,11 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="6">
         <f>D63+D64+D65+D66</f>
         <v>0</v>
@@ -2197,16 +1880,18 @@
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A68" s="22">
+      <c r="A68" s="15">
         <v>13</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="41" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
       <c r="E68" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2214,12 +1899,14 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A69" s="22"/>
-      <c r="B69" s="30"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
       <c r="E69" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2227,11 +1914,11 @@
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="6">
         <f>D68+D69</f>
         <v>0</v>
@@ -2243,17 +1930,16 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A71" s="22">
+      <c r="A71" s="15">
         <v>14</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="4">
-        <f>[1]CONTROLES!AZ279+'[1]SUIVI JOURNALIER AVRIL'!BD344</f>
         <v>0</v>
       </c>
       <c r="E71" s="4">
@@ -2263,13 +1949,12 @@
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="4">
-        <f>[1]CONTROLES!AY279+'[1]SUIVI JOURNALIER AVRIL'!BB344</f>
         <v>0</v>
       </c>
       <c r="E72" s="4">
@@ -2279,11 +1964,11 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="6">
         <f>D71+D72</f>
         <v>0</v>
@@ -2295,84 +1980,83 @@
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A74" s="22">
+      <c r="A74" s="15">
         <v>15</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="4">
-        <f>[1]CONTROLES!E279+'[1]SUIVI JOURNALIER AVRIL'!F344</f>
-        <v>51300</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="0"/>
-        <v>51300</v>
+        <v>0</v>
       </c>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A75" s="22"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D75" s="4">
-        <f>[1]CONTROLES!F279+'[1]SUIVI JOURNALIER AVRIL'!G344</f>
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="0"/>
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="4">
-        <f>[1]CONTROLES!D279+'[1]SUIVI JOURNALIER AVRIL'!E344</f>
-        <v>491200</v>
+        <v>0</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="0"/>
-        <v>491200</v>
+        <v>0</v>
       </c>
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="6">
         <f>D74+D75+D76</f>
-        <v>614000</v>
+        <v>0</v>
       </c>
       <c r="E77" s="6">
         <f>E74+E75+E76</f>
-        <v>614000</v>
+        <v>0</v>
       </c>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A78" s="22">
+      <c r="A78" s="15">
         <v>16</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
       <c r="E78" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2380,12 +2064,14 @@
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A79" s="22"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
       <c r="E79" s="4">
         <f t="shared" ref="E79:E84" si="1">D79</f>
         <v>0</v>
@@ -2393,12 +2079,14 @@
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
       <c r="E80" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2406,11 +2094,11 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="6">
         <f>D78+D79+D80</f>
         <v>0</v>
@@ -2422,114 +2110,111 @@
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A82" s="22">
+      <c r="A82" s="15">
         <v>17</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="28" t="s">
         <v>65</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="4">
-        <f>[1]CONTROLES!AK279+'[1]SUIVI JOURNALIER AVRIL'!AL344</f>
-        <v>23630.25</v>
+        <v>0</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" si="1"/>
-        <v>23630.25</v>
+        <v>0</v>
       </c>
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A83" s="22"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D83" s="4">
-        <f>[1]CONTROLES!AL279+'[1]SUIVI JOURNALIER AVRIL'!AM344</f>
-        <v>118131.25</v>
+        <v>0</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" si="1"/>
-        <v>118131.25</v>
+        <v>0</v>
       </c>
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A84" s="22"/>
-      <c r="B84" s="25"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="4">
-        <f>[1]CONTROLES!AI279+'[1]SUIVI JOURNALIER AVRIL'!AJ344</f>
-        <v>307149.25</v>
+        <v>0</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="1"/>
-        <v>307149.25</v>
+        <v>0</v>
       </c>
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="33"/>
       <c r="D85" s="6">
         <f>D82+D83+D84</f>
-        <v>448910.75</v>
+        <v>0</v>
       </c>
       <c r="E85" s="6">
         <f>E82+E83+E84</f>
-        <v>448910.75</v>
+        <v>0</v>
       </c>
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="33"/>
       <c r="D86" s="6">
         <f>D83+D79+D75+D72+D69+D66+D65+D64+D61+D60+D59+D56+D55+D54+D51+D50+D49+D46+D45+D42+D41+D40+D39+D38+D35+D34+D31+D30+D27+D26+D22+D21+D18+D15</f>
-        <v>21396162.057818182</v>
+        <v>0</v>
       </c>
       <c r="E86" s="6">
         <f>E83+E79+E75+E72+E69+E66+E65+E64+E61+E60+E59+E56+E55+E54+E51+E50+E49+E46+E45+E42+E41+E40+E39+E38+E35+E34+E31+E30+E27+E26+E22+E21+E18+E15</f>
-        <v>21396162.057818182</v>
+        <v>0</v>
       </c>
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="6">
         <f>D85+D81+D77+D73+D70+D67+D62+D57+D52+D47+D43+D36+D32+D28+D24+D19+D16</f>
-        <v>24665332.650545456</v>
+        <v>0</v>
       </c>
       <c r="E87" s="6">
         <f>E85+E81+E77+E73+E70+E67+E62+E57+E52+E47+E43+E36+E32+E28+E24+E19+E16</f>
-        <v>24665332.650545456</v>
+        <v>0</v>
       </c>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="21"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="27"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1">
       <c r="A89" s="9">
@@ -2542,12 +2227,11 @@
         <v>71</v>
       </c>
       <c r="D89" s="4">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BG344+[1]CONTROLES!BC279+'[1]point sur les patentes'!E143</f>
-        <v>2777202.767</v>
+        <v>0</v>
       </c>
       <c r="E89" s="4">
         <f>D89</f>
-        <v>2777202.767</v>
+        <v>0</v>
       </c>
       <c r="F89" s="11"/>
     </row>
@@ -2562,12 +2246,11 @@
         <v>73</v>
       </c>
       <c r="D90" s="4">
-        <f>[1]CONTROLES!BA279+'[1]SUIVI JOURNALIER AVRIL'!BE344</f>
-        <v>2677665</v>
+        <v>0</v>
       </c>
       <c r="E90" s="4">
         <f>D90</f>
-        <v>2677665</v>
+        <v>0</v>
       </c>
       <c r="F90" s="11"/>
       <c r="G90" s="8"/>
@@ -2583,28 +2266,27 @@
         <v>75</v>
       </c>
       <c r="D91" s="4">
-        <f>[1]CONTROLES!BB279+'[1]SUIVI JOURNALIER AVRIL'!BF344</f>
-        <v>1236682</v>
+        <v>0</v>
       </c>
       <c r="E91" s="4">
         <f>D91</f>
-        <v>1236682</v>
+        <v>0</v>
       </c>
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="6">
         <f>D91+D90+D89</f>
-        <v>6691549.767</v>
+        <v>0</v>
       </c>
       <c r="E92" s="6">
         <f>E91+E90+E89</f>
-        <v>6691549.767</v>
+        <v>0</v>
       </c>
       <c r="F92" s="11"/>
     </row>
@@ -2629,12 +2311,59 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A4:C4"/>
@@ -2648,59 +2377,12 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
